--- a/biology/Médecine/Wellcome_Collection/Wellcome_Collection.xlsx
+++ b/biology/Médecine/Wellcome_Collection/Wellcome_Collection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wellcome Collection est un musée et une bibliothèque situés à Londres, présentant un mélange d'artefacts médicaux et d'œuvres d'art originales explorant « des idées sur les liens entre la médecine, la vie et l'art[1] ». Fondée en 2007, Wellcome Collection attire plus de 500 000 visiteurs par an[2]. Le lieu propose aux visiteurs des expositions et des collections contemporaines et historiques, des événements publics animés, la bibliothèque Wellcome, un café, une librairie et des salles de conférence.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wellcome Collection est un musée et une bibliothèque situés à Londres, présentant un mélange d'artefacts médicaux et d'œuvres d'art originales explorant « des idées sur les liens entre la médecine, la vie et l'art ». Fondée en 2007, Wellcome Collection attire plus de 500 000 visiteurs par an. Le lieu propose aux visiteurs des expositions et des collections contemporaines et historiques, des événements publics animés, la bibliothèque Wellcome, un café, une librairie et des salles de conférence.
 </t>
         </is>
       </c>
@@ -513,17 +525,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le musée historique de médecine de Wellcome
-Le Wellcome Historical Medical Museum est fondé en 1913 par Henry Wellcome, afin de conserver tous les objets qu'il avait collectionné de par le monde. Le musée a été intégré comme Museum of the Section of History of Medicine, faisant partie du XVIIe Congrès international de médecine tenu à Londres cette année[3].
-Après quelques mois de fermeture, il rouvre en 1926 avec une réorganisation complète de ses collections, et avec de très importantes acquisitions[3].
-La Wellcome Trust
-Wellcome Collection fait partie de la Wellcome Trust, une fondation caritative médicale, créée à la mort de Henry Wellcome en 1936. Grand voyageur passionné de pharmacie, Henry Wellcome a constitué une vaste collection de livres, de peintures et d’objets sur le thème du développement historique de la médecine dans le monde entier[4].
+          <t>Le musée historique de médecine de Wellcome</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Wellcome Historical Medical Museum est fondé en 1913 par Henry Wellcome, afin de conserver tous les objets qu'il avait collectionné de par le monde. Le musée a été intégré comme Museum of the Section of History of Medicine, faisant partie du XVIIe Congrès international de médecine tenu à Londres cette année.
+Après quelques mois de fermeture, il rouvre en 1926 avec une réorganisation complète de ses collections, et avec de très importantes acquisitions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La Wellcome Trust</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wellcome Collection fait partie de la Wellcome Trust, une fondation caritative médicale, créée à la mort de Henry Wellcome en 1936. Grand voyageur passionné de pharmacie, Henry Wellcome a constitué une vaste collection de livres, de peintures et d’objets sur le thème du développement historique de la médecine dans le monde entier.
 Le Wellcome Trust déménage ses bureaux administratifs dans son nouvel immeuble Gibbs sur le site voisin d'Euston Road, achevé en 2004, créant ainsi une opportunité pour un nouveau lieu public dans l'ancien immeuble Wellcome.
-La bibliothèque Wellcome
-La bibliothèque Wellcome est fondée sur la collection constituée par Henry Wellcome, dont la richesse personnelle lui permit de créer l'une des collections les plus ambitieuses du XXe siècle. Henry Wellcome s'intéressait à l'histoire de la médecine au sens large et comprenait des sujets tels que l'alchimie ou la sorcellerie, mais aussi l'anthropologie et l'ethnographie. Depuis la mort de Henry Wellcome en 1936, la Wellcome Trust est responsable de la gestion de la collection de la bibliothèque et du financement de ses acquisitions. La bibliothèque est gratuite et ouverte au public.
-La Wellcome Collection
-La collection est ouverte au public en juin 2007[5],[4]. En raison de son patrimoine historique, la Wellcome Collection est membre du groupe The London Museums of Health &amp; Medicine (en)[6].
-Wellcome Collection subit une rénovation à partir de 2013 avant de rouvrir ses portes avec des espaces publics supplémentaires en octobre 2015, un an plus tard que prévu[7],[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La bibliothèque Wellcome</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bibliothèque Wellcome est fondée sur la collection constituée par Henry Wellcome, dont la richesse personnelle lui permit de créer l'une des collections les plus ambitieuses du XXe siècle. Henry Wellcome s'intéressait à l'histoire de la médecine au sens large et comprenait des sujets tels que l'alchimie ou la sorcellerie, mais aussi l'anthropologie et l'ethnographie. Depuis la mort de Henry Wellcome en 1936, la Wellcome Trust est responsable de la gestion de la collection de la bibliothèque et du financement de ses acquisitions. La bibliothèque est gratuite et ouverte au public.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wellcome_Collection</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La Wellcome Collection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est ouverte au public en juin 2007,. En raison de son patrimoine historique, la Wellcome Collection est membre du groupe The London Museums of Health &amp; Medicine (en).
+Wellcome Collection subit une rénovation à partir de 2013 avant de rouvrir ses portes avec des espaces publics supplémentaires en octobre 2015, un an plus tard que prévu,.
 	Le musée
 			Section « Medicine Man ».
 			Salle de lecture.
@@ -533,35 +655,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wellcome_Collection</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wellcome_Collection</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection est divisée en plusieurs espaces. La section « Medicine Man » est une exposition permanente d'une petite partie de la collection de Henry Wellcome. « Medicine Now » est une exposition permanente mêlant art, expositions sur divers supports et objets afin de présenter certains aspects de la médecine moderne et du travail du Wellcome Trust. Cette section présente un mur de cartes postales où les visiteurs sont invités à contribuer avec des dessins.
 Le principal espace d'exposition accueille un programme changeant d'événements et d'expositions temporaires.
-Le foyer et les parties communes du bâtiment comprennent une œuvre de 1950 de Pablo Picasso[9] (initialement accrochée à un mur de l’appartement de John Desmond Bernal à Torrington Square (en)) et une de Antony Gormley[10]. Une sculpture de Marc Quinn[11] reposait à l’origine sur le sol de pierre, sans aucune protection, puis a été déplacée à l’intérieur d’une vitrine et n’est plus visible.
+Le foyer et les parties communes du bâtiment comprennent une œuvre de 1950 de Pablo Picasso (initialement accrochée à un mur de l’appartement de John Desmond Bernal à Torrington Square (en)) et une de Antony Gormley. Une sculpture de Marc Quinn reposait à l’origine sur le sol de pierre, sans aucune protection, puis a été déplacée à l’intérieur d’une vitrine et n’est plus visible.
 	Collection
 			Appareils d'alchimie (collection sur l'alchimie).
 			Anatomie chirurgicale des artères du cou, Gray's Anatomy, 1858 (collection sur la médecine).
